--- a/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
+++ b/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E3588-4B60-424A-8688-3CC16FB8801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4022CF-C568-4D78-8438-3319E1E21277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{2E53E428-8BF8-45DE-B4C7-F74F36D92E16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>メールアドレス</t>
   </si>
@@ -169,6 +169,23 @@
     <t>特になし</t>
     <rPh sb="0" eb="1">
       <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通院なし</t>
+    <rPh sb="0" eb="2">
+      <t>ツウイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>服用中の薬なし</t>
+    <rPh sb="0" eb="3">
+      <t>フクヨウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クスリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -600,22 +617,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.649999999999999" zeroHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" zeroHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.6875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.8125" style="1" hidden="1"/>
+    <col min="4" max="4" width="40.125" style="1" customWidth="1"/>
+    <col min="5" max="16377" width="8.8125" style="1"/>
+    <col min="16378" max="16378" width="32.875" style="1" customWidth="1"/>
+    <col min="16379" max="16384" width="30.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -697,7 +716,9 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
@@ -706,7 +727,9 @@
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
@@ -715,7 +738,9 @@
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="5" t="s">
@@ -724,7 +749,9 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="5" t="s">
@@ -733,7 +760,9 @@
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B14" s="5" t="s">
@@ -760,7 +789,9 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B17" s="5" t="s">
@@ -832,15 +863,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e">
@@ -848,6 +870,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1068,19 +1099,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
+++ b/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4022CF-C568-4D78-8438-3319E1E21277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB05CF8-22F1-4AD4-8F44-0E71EA14C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{2E53E428-8BF8-45DE-B4C7-F74F36D92E16}"/>
   </bookViews>
   <sheets>
     <sheet name="回答フォーム" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">回答フォーム!$B$2:$D$22</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">回答フォーム!$2:$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>メールアドレス</t>
   </si>
@@ -187,6 +191,32 @@
     <rPh sb="4" eb="5">
       <t>クスリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大の懸念：業務が滞った際に、上手くコミュニケーションが取れない（質問が上手くできない）
+自身の対策：疑問点を紙に書き出し、アウトプットを重視することで、質問がスムーズに行えるように努めています。
+　　　　　　紙に書くことで整理され、相手に的確に伝えることができるよう心がけています。この方法を通じて、自分の意思をより明確に示すことができ、
+　　　　　　円滑なコミュニケーションに繋がると考えています。
+会社の対策：円滑なコミュニケーションができるようサポートしていただきたいです。
+　　　　　　具体的には、障害特性を理解し、それに適したフォローアップやサポート体制を整備していただきたいです。
+　　　　　　また、同僚や上司にも障害特性について理解を促進するためのトレーニングや情報提供を行い、
+　　　　　　全体的なコミュニケーションの質を向上させるようお願いしたいです。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害者に対してかなり配慮されているため、共感と協力のチーム環境で働くことができると考えており、
+Webアプリケーション開発に携わり、スキルアップができると考え、会社の技術的な挑戦に参加することで成長できると期待しています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害の発症：現場でコミュニケーションがスムーズにいかず、原因を明らかにするために心療内科を受診したところ、障害が発覚しました。
+手帳取得の経緯：就労移行支援事業所へ通うために手帳を取得しました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・円滑なコミュニケーションが取れるか
+・Webアプリケーション開発の実務経験を積んでいくことができるか</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -617,10 +647,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFD22"/>
+  <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
@@ -631,7 +661,7 @@
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="136.1875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16377" width="8.8125" style="1"/>
     <col min="16378" max="16378" width="32.875" style="1" customWidth="1"/>
     <col min="16379" max="16384" width="30.625" style="1" customWidth="1"/>
@@ -689,14 +719,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:4" ht="35.25" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
@@ -764,14 +796,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:4" ht="176.25" x14ac:dyDescent="0.6">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B15" s="5" t="s">
@@ -780,7 +814,9 @@
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B16" s="5" t="s">
@@ -793,14 +829,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:4" ht="35.25" x14ac:dyDescent="0.6">
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B18" s="5" t="s">
@@ -857,12 +895,21 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{70FCB89F-58EC-43E4-913E-2A38F0C5BC83}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{D809180F-F033-4B75-9020-99931AC31C50}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e">
@@ -870,15 +917,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,19 +1137,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
+++ b/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB05CF8-22F1-4AD4-8F44-0E71EA14C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{912B917D-63EF-4DC4-B1C2-7961F6F46108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{2E53E428-8BF8-45DE-B4C7-F74F36D92E16}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">回答フォーム!$B$2:$D$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">回答フォーム!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,77 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>氏名</t>
-  </si>
-  <si>
-    <t>障害の発症と手帳取得の経緯</t>
-  </si>
-  <si>
-    <t>業務上の制限</t>
-  </si>
-  <si>
-    <t>業務上必要な配慮</t>
-  </si>
-  <si>
-    <t>勤務中の体調不良の対処方法</t>
-  </si>
-  <si>
-    <t>通院の頻度、所要時間、今後の見通し</t>
-  </si>
-  <si>
-    <t>服薬の頻度、副作用、今後の見通し</t>
-  </si>
-  <si>
-    <t>主治医から気を付けるように言われていること</t>
-  </si>
-  <si>
-    <t>入社後、障害特性が原因で起きうる最大の懸念と自身・会社の対策</t>
-  </si>
-  <si>
-    <t>なぜJPTに入社したいと思ったか</t>
-  </si>
-  <si>
-    <t>業務をする上でモチベーションを高めるもの・下げるもの</t>
-  </si>
-  <si>
-    <t>JPTで働く上で大事にしたいこと</t>
-  </si>
-  <si>
-    <t>ご回答</t>
-    <rPh sb="1" eb="3">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>就労移行支援事業所名
-（通所されている方のみ）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>連絡の際にCcに追加する方のメールアドレス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他、自由記入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>インターンでご自身が成長を実感した瞬間、エピソード</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>回答必須</t>
     <rPh sb="0" eb="2">
@@ -122,31 +52,32 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ご回答</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>＊</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>履歴書（※PDF形式で要添付）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>職務経歴書 （※PDF形式で要添付）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>障害者手帳の写し（障害名・等級がわかるもの） （※PDF形式で要添付）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールに要添付。</t>
-    <rPh sb="4" eb="7">
-      <t>ヨウテンプ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t>メールアドレス</t>
   </si>
   <si>
     <t>kazuhiko.d@gmail.com</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名</t>
   </si>
   <si>
     <t>出村和彦</t>
@@ -159,6 +90,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>就労移行支援事業所名
+（通所されている方のみ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>未来のかたち</t>
     <rPh sb="0" eb="2">
       <t>ミライ</t>
@@ -166,8 +102,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>連絡の際にCcに追加する方のメールアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>contact@miraino-katachi.co.jp</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害の発症と手帳取得の経緯</t>
+  </si>
+  <si>
+    <t>障害の発症：現場でコミュニケーションがスムーズにいかず、原因を明らかにするために心療内科を受診したところ、障害が発覚しました。
+手帳取得の経緯：就労移行支援事業所へ通うために手帳を取得しました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務上の制限</t>
   </si>
   <si>
     <t>特になし</t>
@@ -177,11 +128,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>業務上必要な配慮</t>
+  </si>
+  <si>
+    <t>勤務中の体調不良の対処方法</t>
+  </si>
+  <si>
+    <t>通院の頻度、所要時間、今後の見通し</t>
+  </si>
+  <si>
     <t>通院なし</t>
     <rPh sb="0" eb="2">
       <t>ツウイン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>服薬の頻度、副作用、今後の見通し</t>
   </si>
   <si>
     <t>服用中の薬なし</t>
@@ -192,6 +155,12 @@
       <t>クスリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主治医から気を付けるように言われていること</t>
+  </si>
+  <si>
+    <t>入社後、障害特性が原因で起きうる最大の懸念と自身・会社の対策</t>
   </si>
   <si>
     <t>最大の懸念：業務が滞った際に、上手くコミュニケーションが取れない（質問が上手くできない）
@@ -202,7 +171,9 @@
 　　　　　　具体的には、障害特性を理解し、それに適したフォローアップやサポート体制を整備していただきたいです。
 　　　　　　また、同僚や上司にも障害特性について理解を促進するためのトレーニングや情報提供を行い、
 　　　　　　全体的なコミュニケーションの質を向上させるようお願いしたいです。</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なぜJPTに入社したいと思ったか</t>
   </si>
   <si>
     <t>障害者に対してかなり配慮されているため、共感と協力のチーム環境で働くことができると考えており、
@@ -210,13 +181,48 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>障害の発症：現場でコミュニケーションがスムーズにいかず、原因を明らかにするために心療内科を受診したところ、障害が発覚しました。
-手帳取得の経緯：就労移行支援事業所へ通うために手帳を取得しました。</t>
-    <phoneticPr fontId="2"/>
+    <t>業務をする上でモチベーションを高めるもの・下げるもの</t>
+  </si>
+  <si>
+    <t>JPTで働く上で大事にしたいこと</t>
   </si>
   <si>
     <t>・円滑なコミュニケーションが取れるか
 ・Webアプリケーション開発の実務経験を積んでいくことができるか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターンでご自身が成長を実感した瞬間、エピソード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページ「検査の記録」の開発過程で、プルダウン項目によって他の項目の内容が動的に変化する仕組みを追加したいと思いました。
+しかし、当時事業所で学習したLaravel/PHPの知識ではその機能実装が難しく、事業所の講師に相談しても問題が解決しませんでした。
+苦悩の中、別のアプローチを模索する中で、jQueryを使用すれば実現の可能性が見えてきました。
+そこから、当時の自分のプロジェクトに適した形で機能を取り込み、理想的な機能実装が可能になりました。
+この経験から、柔軟な発想と適切なツールの活用が問題解決につながることを学びました。</t>
+  </si>
+  <si>
+    <t>その他、自由記入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>履歴書（※PDF形式で要添付）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールに要添付。</t>
+    <rPh sb="4" eb="7">
+      <t>ヨウテンプ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>職務経歴書 （※PDF形式で要添付）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害者手帳の写し（障害名・等級がわかるもの） （※PDF形式で要添付）</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -224,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,242 +657,244 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" zeroHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="136.1875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16377" width="8.8125" style="1"/>
+    <col min="3" max="3" width="40.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="136.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16377" width="8.875" style="1"/>
     <col min="16378" max="16378" width="32.875" style="1" customWidth="1"/>
     <col min="16379" max="16384" width="30.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:4" ht="11.45" customHeight="1"/>
+    <row r="2" spans="2:4">
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="48" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="48" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="48" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="48" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="35.25">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="48" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="48" customHeight="1">
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="48" customHeight="1">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="48" customHeight="1">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="48" customHeight="1">
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="48" customHeight="1">
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="247.5">
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="48" customHeight="1">
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="48" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="35.25">
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="35.25" x14ac:dyDescent="0.6">
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="18" spans="2:4" ht="112.5">
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="176.25" x14ac:dyDescent="0.6">
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="35.25" x14ac:dyDescent="0.6">
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:4" ht="48" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:4" ht="48" customHeight="1">
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="48" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="48" customHeight="1">
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -910,16 +918,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDC21D4BC1EFCC45A2F2E481625EBD92" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5ec6df5f487c90f928f0081212656a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e" xmlns:ns3="bc8c6325-a1d2-4efd-8a61-1552c9f8b060" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c78c55053fa125cfc6fcaf671afebf36" ns2:_="" ns3:_="">
     <xsd:import namespace="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
@@ -1136,39 +1134,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A27556-73DF-480F-BE81-0AE13CDF2EEA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A27556-73DF-480F-BE81-0AE13CDF2EEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
-    <ds:schemaRef ds:uri="bc8c6325-a1d2-4efd-8a61-1552c9f8b060"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}"/>
 </file>
--- a/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
+++ b/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{912B917D-63EF-4DC4-B1C2-7961F6F46108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D1126-2470-49F3-980C-4671C7A81811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{2E53E428-8BF8-45DE-B4C7-F74F36D92E16}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>回答必須</t>
     <rPh sb="0" eb="2">
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -657,12 +657,12 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" zeroHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
@@ -673,8 +673,8 @@
     <col min="16379" max="16384" width="30.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="11.45" customHeight="1"/>
-    <row r="2" spans="2:4">
+    <row r="1" spans="2:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="48" customHeight="1">
+    <row r="3" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -696,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="48" customHeight="1">
+    <row r="4" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="48" customHeight="1">
+    <row r="5" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -716,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="48" customHeight="1">
+    <row r="6" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="35.25">
+    <row r="7" spans="2:4" ht="35.25" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -736,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="48" customHeight="1">
+    <row r="8" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -747,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="48" customHeight="1">
+    <row r="9" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="48" customHeight="1">
+    <row r="10" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -769,7 +769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="48" customHeight="1">
+    <row r="11" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
@@ -780,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="48" customHeight="1">
+    <row r="12" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="48" customHeight="1">
+    <row r="13" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -802,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="247.5">
+    <row r="14" spans="2:4" ht="176.25" x14ac:dyDescent="0.6">
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="48" customHeight="1">
+    <row r="15" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="48" customHeight="1">
+    <row r="16" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="35.25">
+    <row r="17" spans="2:4" ht="35.25" x14ac:dyDescent="0.6">
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="112.5">
+    <row r="18" spans="2:4" ht="88.15" x14ac:dyDescent="0.6">
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
@@ -857,14 +857,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="48" customHeight="1">
+    <row r="19" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" ht="48" customHeight="1">
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
@@ -875,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="48" customHeight="1">
+    <row r="21" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
@@ -886,7 +888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="48" customHeight="1">
+    <row r="22" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
@@ -909,15 +911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDC21D4BC1EFCC45A2F2E481625EBD92" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5ec6df5f487c90f928f0081212656a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e" xmlns:ns3="bc8c6325-a1d2-4efd-8a61-1552c9f8b060" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c78c55053fa125cfc6fcaf671afebf36" ns2:_="" ns3:_="">
     <xsd:import namespace="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
@@ -1134,6 +1127,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1145,13 +1147,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A27556-73DF-480F-BE81-0AE13CDF2EEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
+    <ds:schemaRef ds:uri="bc8c6325-a1d2-4efd-8a61-1552c9f8b060"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A27556-73DF-480F-BE81-0AE13CDF2EEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
+++ b/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D1126-2470-49F3-980C-4671C7A81811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3584D40A-EA00-4583-BC08-2AB92430A844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{2E53E428-8BF8-45DE-B4C7-F74F36D92E16}"/>
   </bookViews>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -656,13 +656,13 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" zeroHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
@@ -673,8 +673,8 @@
     <col min="16379" max="16384" width="30.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:4" ht="11.45" customHeight="1"/>
+    <row r="2" spans="2:4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:4" ht="48" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -696,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:4" ht="48" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:4" ht="48" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -716,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:4" ht="48" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="35.25" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:4" ht="35.25">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -736,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:4" ht="48" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -747,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:4" ht="48" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:4" ht="48" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -769,7 +769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:4" ht="48" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
@@ -780,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:4" ht="48" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:4" ht="48" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -802,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="176.25" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:4" ht="247.5">
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:4" ht="48" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:4" ht="48" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="35.25" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:4" ht="35.25">
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="88.15" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:4" ht="112.5">
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
@@ -857,7 +857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:4" ht="48" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>32</v>
@@ -866,7 +866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:4" ht="48" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
@@ -877,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:4" ht="48" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
@@ -888,7 +888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:4" ht="48" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1147,38 +1147,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A27556-73DF-480F-BE81-0AE13CDF2EEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
-    <ds:schemaRef ds:uri="bc8c6325-a1d2-4efd-8a61-1552c9f8b060"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A27556-73DF-480F-BE81-0AE13CDF2EEA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E11B3A-E5A7-41CF-91E6-4D92F29E1875}"/>
 </file>
--- a/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
+++ b/【JPT】2023年下期_最終面接にあたっての事前記入フォーム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3584D40A-EA00-4583-BC08-2AB92430A844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD76579-A7D4-429C-8CA1-DC3906225FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{2E53E428-8BF8-45DE-B4C7-F74F36D92E16}"/>
   </bookViews>
@@ -168,9 +168,7 @@
 　　　　　　紙に書くことで整理され、相手に的確に伝えることができるよう心がけています。この方法を通じて、自分の意思をより明確に示すことができ、
 　　　　　　円滑なコミュニケーションに繋がると考えています。
 会社の対策：円滑なコミュニケーションができるようサポートしていただきたいです。
-　　　　　　具体的には、障害特性を理解し、それに適したフォローアップやサポート体制を整備していただきたいです。
-　　　　　　また、同僚や上司にも障害特性について理解を促進するためのトレーニングや情報提供を行い、
-　　　　　　全体的なコミュニケーションの質を向上させるようお願いしたいです。</t>
+　　　　　　具体的には、口頭指示だけではなくチャットアプリを使用する、定期的な質問・報告の場を用意するなど</t>
   </si>
   <si>
     <t>なぜJPTに入社したいと思ったか</t>
@@ -656,8 +654,8 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -802,7 +800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="247.5">
+    <row r="14" spans="2:4" ht="202.5">
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -911,6 +909,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDC21D4BC1EFCC45A2F2E481625EBD92" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5ec6df5f487c90f928f0081212656a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e" xmlns:ns3="bc8c6325-a1d2-4efd-8a61-1552c9f8b060" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c78c55053fa125cfc6fcaf671afebf36" ns2:_="" ns3:_="">
     <xsd:import namespace="3dfe3cba-ca6a-4bab-b25b-5c563f90a78e"/>
@@ -1127,15 +1134,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1147,11 +1145,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A27556-73DF-480F-BE81-0AE13CDF2EEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57558B6-E6F6-4A1A-A0ED-3F5FFF9689A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A27556-73DF-480F-BE81-0AE13CDF2EEA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
